--- a/results/second_to_third/error_compare_layer1+2.xlsx
+++ b/results/second_to_third/error_compare_layer1+2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/second_to_third/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725CB01-2EA8-C14B-AB7C-D53CFF9AE948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6528887D-F031-4B42-8765-4B06E8CC91AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37160" yWindow="500" windowWidth="29400" windowHeight="19680" xr2:uid="{CD6BEB2C-4BD4-0F43-A416-4969192F6B22}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{CD6BEB2C-4BD4-0F43-A416-4969192F6B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>functional</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>abs error</t>
   </si>
 </sst>
 </file>
@@ -271,94 +274,94 @@
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BLYP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HSE06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M08-HX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>svwn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PBE0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BMK</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>X3LYP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wB97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M06-L</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>OPBE</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>wB97X-D</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>B2PLYP</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>B3LYP</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
+                  <c:v>M06-HF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>OTPSS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bpw91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>M06-2X</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>B3PW91</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>MPW1PW91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CAM-B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TPSSh</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>OLYP</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>wB97X</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>OVWN5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>PBE</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>B97D</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>BLYP</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BMK</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>bpw91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CAM-B3LYP</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HSE06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>M05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>M06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>M06-2X</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>M06-HF</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>M06-L</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>M08-HX</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MPW1PW91</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>n12</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
                   <c:v>O3LYP</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>OLYP</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>OPBE</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>OTPSS</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>OVWN5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>PBE</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>PBE0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>svwn</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>TPSSh</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>wB97</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>wB97X</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>wB97X-D</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>X3LYP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -370,94 +373,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>9.2003261905890144E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61808042629003634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4043306829354245E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29238699481168351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0796691976424215E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.16858206897279238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48067413478822929</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48601003461497538</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65158211649717157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.51573338798113233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4933100421875269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1483274784203321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2193083614088744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0772665936620787</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.2594455719057893</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2003261905890144E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
+                  <c:v>1.3075829585942587</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.77020402637809826</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2466537083975457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.89089947364882049</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7029864967627337</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.1870494024974705</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>2.282856138367944</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2263027840096368</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4278473588069391</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5420820006707685</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0061776467890611</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.721720581074653</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52688522055231712</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>4.0400583758148638</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61808042629003634</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.48067413478822929</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.89089947364882049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2263027840096368</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4043306829354245E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2193083614088744</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1483274784203321</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7029864967627337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3075829585942587</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.51573338798113233</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.29238699481168351</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.282856138367944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2466537083975457</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
                   <c:v>4.1668549098332459</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5420820006707685</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4933100421875269</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.77020402637809826</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.721720581074653</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.52688522055231712</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.16858206897279238</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.0796691976424215E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.4278473588069391</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65158211649717157</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.0061776467890611</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.0772665936620787</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.48601003461497538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,94 +501,94 @@
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BLYP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HSE06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M08-HX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>svwn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PBE0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BMK</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>X3LYP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wB97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M06-L</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>OPBE</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>wB97X-D</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>B2PLYP</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>B3LYP</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
+                  <c:v>M06-HF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>OTPSS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bpw91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>M06-2X</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>B3PW91</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>MPW1PW91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>CAM-B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TPSSh</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>OLYP</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>wB97X</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>OVWN5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>PBE</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>B97D</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>BLYP</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BMK</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>bpw91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CAM-B3LYP</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HSE06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>M05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>M06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>M06-2X</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>M06-HF</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>M06-L</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>M08-HX</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MPW1PW91</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>n12</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
                   <c:v>O3LYP</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>OLYP</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>OPBE</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>OTPSS</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>OVWN5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>PBE</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>PBE0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>svwn</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>TPSSh</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>wB97</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>wB97X</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>wB97X-D</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>X3LYP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -597,94 +600,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>-1.5142227082424631E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7535153090242792E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.1350047465883462E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14124625117664213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.26602475923878965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.36125733280043154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41444219993179598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44110428371455357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64679670497897956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.84518091573972476</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9286535247531138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0464131250409425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0770271326016119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1301254448902107</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.2259996652317995</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.5142227082424631E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
+                  <c:v>1.2361636986121165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4253977758671439</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.44806305928986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5394258654147996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5422694878026388</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.0192184953629497</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>2.0733766949174091</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1499149792182704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4256807804862128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5662185695234174</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9444734306911227</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1214117492836082</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1405506741996612</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>3.3128491627186976</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.7535153090242792E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41444219993179598</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.5394258654147996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1499149792182704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-6.1350047465883462E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0770271326016119</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0464131250409425</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5422694878026388</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2361636986121165</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.84518091573972476</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14124625117664213</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0733766949174091</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.44806305928986</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
                   <c:v>3.8982838248453171</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.5662185695234174</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9286535247531138</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.4253977758671439</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.1214117492836082</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.1405506741996612</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.36125733280043154</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.26602475923878965</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.4256807804862128</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.64679670497897956</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.9444734306911227</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1301254448902107</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.44110428371455357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,16 +1448,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>698022</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211029</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>175316</xdr:rowOff>
+      <xdr:rowOff>137121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>143233</xdr:colOff>
+      <xdr:colOff>477443</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>181428</xdr:rowOff>
+      <xdr:rowOff>143233</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1801,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA47F0F5-C580-A743-958B-A35CA941DEA1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D7" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1817,368 +1820,464 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.2594455719057893</v>
+        <v>9.2003261905890144E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>1.2259996652317995</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>-1.5142227082424631E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <f>ABS(C2)</f>
+        <v>1.5142227082424631E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>9.2003261905890144E-2</v>
+        <v>0.61808042629003634</v>
       </c>
       <c r="C3" s="1">
-        <v>-1.5142227082424631E-2</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>-2.7535153090242792E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <f>ABS(C3)</f>
+        <v>2.7535153090242792E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>2.1870494024974705</v>
+        <v>9.4043306829354245E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0192184953629497</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>-6.1350047465883462E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f>ABS(C4)</f>
+        <v>6.1350047465883462E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0400583758148638</v>
+        <v>0.29238699481168351</v>
       </c>
       <c r="C5" s="1">
-        <v>3.3128491627186976</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>0.14124625117664213</v>
+      </c>
+      <c r="D5" s="1">
+        <f>ABS(C5)</f>
+        <v>0.14124625117664213</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.61808042629003634</v>
+        <v>4.0796691976424215E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>-2.7535153090242792E-2</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>-0.26602475923878965</v>
+      </c>
+      <c r="D6" s="1">
+        <f>ABS(C6)</f>
+        <v>0.26602475923878965</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>0.48067413478822929</v>
+        <v>-0.16858206897279238</v>
       </c>
       <c r="C7" s="1">
-        <v>0.41444219993179598</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>-0.36125733280043154</v>
+      </c>
+      <c r="D7" s="1">
+        <f>ABS(C7)</f>
+        <v>0.36125733280043154</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.89089947364882049</v>
+        <v>0.48067413478822929</v>
       </c>
       <c r="C8" s="1">
-        <v>-1.5394258654147996</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>0.41444219993179598</v>
+      </c>
+      <c r="D8" s="1">
+        <f>ABS(C8)</f>
+        <v>0.41444219993179598</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>2.2263027840096368</v>
+        <v>0.48601003461497538</v>
       </c>
       <c r="C9" s="1">
-        <v>2.1499149792182704</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>0.44110428371455357</v>
+      </c>
+      <c r="D9" s="1">
+        <f>ABS(C9)</f>
+        <v>0.44110428371455357</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
-        <v>9.4043306829354245E-2</v>
+        <v>0.65158211649717157</v>
       </c>
       <c r="C10" s="1">
-        <v>-6.1350047465883462E-2</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>0.64679670497897956</v>
+      </c>
+      <c r="D10" s="1">
+        <f>ABS(C10)</f>
+        <v>0.64679670497897956</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>1.2193083614088744</v>
+        <v>-0.51573338798113233</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0770271326016119</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>-0.84518091573972476</v>
+      </c>
+      <c r="D11" s="1">
+        <f>ABS(C11)</f>
+        <v>0.84518091573972476</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>1.1483274784203321</v>
+        <v>1.4933100421875269</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0464131250409425</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>0.9286535247531138</v>
+      </c>
+      <c r="D12" s="1">
+        <f>ABS(C12)</f>
+        <v>0.9286535247531138</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.7029864967627337</v>
+        <v>1.1483274784203321</v>
       </c>
       <c r="C13" s="1">
-        <v>1.5422694878026388</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>1.0464131250409425</v>
+      </c>
+      <c r="D13" s="1">
+        <f>ABS(C13)</f>
+        <v>1.0464131250409425</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>1.3075829585942587</v>
+        <v>1.2193083614088744</v>
       </c>
       <c r="C14" s="1">
-        <v>1.2361636986121165</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>1.0770271326016119</v>
+      </c>
+      <c r="D14" s="1">
+        <f>ABS(C14)</f>
+        <v>1.0770271326016119</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.51573338798113233</v>
+        <v>1.0772665936620787</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.84518091573972476</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>1.1301254448902107</v>
+      </c>
+      <c r="D15" s="1">
+        <f>ABS(C15)</f>
+        <v>1.1301254448902107</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>0.29238699481168351</v>
+        <v>1.2594455719057893</v>
       </c>
       <c r="C16" s="1">
-        <v>0.14124625117664213</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>1.2259996652317995</v>
+      </c>
+      <c r="D16" s="1">
+        <f>ABS(C16)</f>
+        <v>1.2259996652317995</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>2.282856138367944</v>
+        <v>1.3075829585942587</v>
       </c>
       <c r="C17" s="1">
-        <v>2.0733766949174091</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>1.2361636986121165</v>
+      </c>
+      <c r="D17" s="1">
+        <f>ABS(C17)</f>
+        <v>1.2361636986121165</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>2.2466537083975457</v>
+        <v>-0.77020402637809826</v>
       </c>
       <c r="C18" s="1">
-        <v>1.44806305928986</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>-1.4253977758671439</v>
+      </c>
+      <c r="D18" s="1">
+        <f>ABS(C18)</f>
+        <v>1.4253977758671439</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>4.1668549098332459</v>
+        <v>2.2466537083975457</v>
       </c>
       <c r="C19" s="1">
-        <v>3.8982838248453171</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>1.44806305928986</v>
+      </c>
+      <c r="D19" s="1">
+        <f>ABS(C19)</f>
+        <v>1.44806305928986</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
-        <v>1.5420820006707685</v>
+        <v>-0.89089947364882049</v>
       </c>
       <c r="C20" s="1">
-        <v>2.5662185695234174</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>-1.5394258654147996</v>
+      </c>
+      <c r="D20" s="1">
+        <f>ABS(C20)</f>
+        <v>1.5394258654147996</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>1.4933100421875269</v>
+        <v>1.7029864967627337</v>
       </c>
       <c r="C21" s="1">
-        <v>0.9286535247531138</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>1.5422694878026388</v>
+      </c>
+      <c r="D21" s="1">
+        <f>ABS(C21)</f>
+        <v>1.5422694878026388</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>-0.77020402637809826</v>
+        <v>2.1870494024974705</v>
       </c>
       <c r="C22" s="1">
-        <v>-1.4253977758671439</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>2.0192184953629497</v>
+      </c>
+      <c r="D22" s="1">
+        <f>ABS(C22)</f>
+        <v>2.0192184953629497</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>13.721720581074653</v>
+        <v>2.282856138367944</v>
       </c>
       <c r="C23" s="1">
-        <v>3.1214117492836082</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>2.0733766949174091</v>
+      </c>
+      <c r="D23" s="1">
+        <f>ABS(C23)</f>
+        <v>2.0733766949174091</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
-        <v>0.52688522055231712</v>
+        <v>2.2263027840096368</v>
       </c>
       <c r="C24" s="1">
-        <v>3.1405506741996612</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>2.1499149792182704</v>
+      </c>
+      <c r="D24" s="1">
+        <f>ABS(C24)</f>
+        <v>2.1499149792182704</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>-0.16858206897279238</v>
+        <v>2.4278473588069391</v>
       </c>
       <c r="C25" s="1">
-        <v>-0.36125733280043154</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>2.4256807804862128</v>
+      </c>
+      <c r="D25" s="1">
+        <f>ABS(C25)</f>
+        <v>2.4256807804862128</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>4.0796691976424215E-2</v>
+        <v>1.5420820006707685</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.26602475923878965</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>2.5662185695234174</v>
+      </c>
+      <c r="D26" s="1">
+        <f>ABS(C26)</f>
+        <v>2.5662185695234174</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>2.4278473588069391</v>
+        <v>3.0061776467890611</v>
       </c>
       <c r="C27" s="1">
-        <v>2.4256807804862128</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>2.9444734306911227</v>
+      </c>
+      <c r="D27" s="1">
+        <f>ABS(C27)</f>
+        <v>2.9444734306911227</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>0.65158211649717157</v>
+        <v>13.721720581074653</v>
       </c>
       <c r="C28" s="1">
-        <v>0.64679670497897956</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>3.1214117492836082</v>
+      </c>
+      <c r="D28" s="1">
+        <f>ABS(C28)</f>
+        <v>3.1214117492836082</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
-        <v>3.0061776467890611</v>
+        <v>0.52688522055231712</v>
       </c>
       <c r="C29" s="1">
-        <v>2.9444734306911227</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>3.1405506741996612</v>
+      </c>
+      <c r="D29" s="1">
+        <f>ABS(C29)</f>
+        <v>3.1405506741996612</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>1.0772665936620787</v>
+        <v>4.0400583758148638</v>
       </c>
       <c r="C30" s="1">
-        <v>1.1301254448902107</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>3.3128491627186976</v>
+      </c>
+      <c r="D30" s="1">
+        <f>ABS(C30)</f>
+        <v>3.3128491627186976</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1">
-        <v>0.48601003461497538</v>
+        <v>4.1668549098332459</v>
       </c>
       <c r="C31" s="1">
-        <v>0.44110428371455357</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>3.8982838248453171</v>
+      </c>
+      <c r="D31" s="1">
+        <f>ABS(C31)</f>
+        <v>3.8982838248453171</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+    <sortCondition ref="D1:D31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results/second_to_third/error_compare_layer1+2.xlsx
+++ b/results/second_to_third/error_compare_layer1+2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/second_to_third/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6528887D-F031-4B42-8765-4B06E8CC91AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A354B-2D97-8E4F-9BCA-26480BBBA21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{CD6BEB2C-4BD4-0F43-A416-4969192F6B22}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{CD6BEB2C-4BD4-0F43-A416-4969192F6B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,10 +144,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,9 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,79 +293,79 @@
                   <c:v>HSE06</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>PBE</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>M08-HX</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>svwn</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>PBE0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>BMK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>PBE0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>X3LYP</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>wB97</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>M06-L</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>OPBE</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>M06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>M05</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>wB97X-D</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>B2PLYP</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>M06-HF</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>OTPSS</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>n12</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>bpw91</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>M06-2X</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>B3PW91</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>MPW1PW91</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>CAM-B3LYP</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>TPSSh</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>OLYP</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>wB97X</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>OVWN5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>PBE</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>B97D</c:v>
@@ -382,79 +392,79 @@
                   <c:v>9.4043306829354245E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.29238699481168351</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.0796691976424215E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.16858206897279238</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.48067413478822929</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.48601003461497538</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.65158211649717157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-0.51573338798113233</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1.4933100421875269</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.1483274784203321</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.2193083614088744</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1.0772665936620787</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1.2594455719057893</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.3075829585942587</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>-0.77020402637809826</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2.2466537083975457</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>-0.89089947364882049</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1.7029864967627337</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>2.1870494024974705</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2.282856138367944</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>2.2263027840096368</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>2.4278473588069391</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1.5420820006707685</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>3.0061776467890611</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>13.721720581074653</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.52688522055231712</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4.0400583758148638</c:v>
@@ -510,79 +520,79 @@
                   <c:v>HSE06</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>PBE</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>M08-HX</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>svwn</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>PBE0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>BMK</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>PBE0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>X3LYP</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>wB97</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>M06-L</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>OPBE</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>M06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>M05</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>wB97X-D</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>B2PLYP</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>M06-HF</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>OTPSS</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>n12</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>bpw91</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>M06-2X</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>B3PW91</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>MPW1PW91</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>CAM-B3LYP</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>TPSSh</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>OLYP</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>wB97X</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>OVWN5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>PBE</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>B97D</c:v>
@@ -609,79 +619,79 @@
                   <c:v>-6.1350047465883462E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.14124625117664213</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-0.26602475923878965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.36125733280043154</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.41444219993179598</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.44110428371455357</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.64679670497897956</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-0.84518091573972476</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.9286535247531138</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.0464131250409425</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.0770271326016119</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1.1301254448902107</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1.2259996652317995</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.2361636986121165</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>-1.4253977758671439</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1.44806305928986</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>-1.5394258654147996</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1.5422694878026388</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>2.0192184953629497</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2.0733766949174091</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>2.1499149792182704</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>2.4256807804862128</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>2.5662185695234174</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>2.9444734306911227</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>3.1214117492836082</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.1405506741996612</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.3128491627186976</c:v>
@@ -1449,15 +1459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>211029</xdr:colOff>
+      <xdr:colOff>823283</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>137121</xdr:rowOff>
+      <xdr:rowOff>199550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>477443</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>143233</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>265652</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1804,11 +1814,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA47F0F5-C580-A743-958B-A35CA941DEA1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1870,378 +1883,378 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.29238699481168351</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.14124625117664213</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-0.13</v>
+      </c>
+      <c r="D5" s="3">
         <f>ABS(C5)</f>
-        <v>0.14124625117664213</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0796691976424215E-2</v>
+        <v>0.29238699481168351</v>
       </c>
       <c r="C6" s="1">
-        <v>-0.26602475923878965</v>
+        <v>0.14124625117664213</v>
       </c>
       <c r="D6" s="1">
         <f>ABS(C6)</f>
+        <v>0.14124625117664213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.0796691976424215E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-0.26602475923878965</v>
+      </c>
+      <c r="D7" s="3">
+        <f>ABS(C7)</f>
         <v>0.26602475923878965</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-0.16858206897279238</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.36125733280043154</v>
-      </c>
-      <c r="D7" s="1">
-        <f>ABS(C7)</f>
-        <v>0.36125733280043154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>0.48067413478822929</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.41444219993179598</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f>ABS(C8)</f>
         <v>0.41444219993179598</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-0.42</v>
+      </c>
+      <c r="D9" s="3">
+        <f>ABS(C9)</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="3">
         <v>0.48601003461497538</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="3">
         <v>0.44110428371455357</v>
       </c>
-      <c r="D9" s="1">
-        <f>ABS(C9)</f>
+      <c r="D10" s="3">
+        <f>ABS(C10)</f>
         <v>0.44110428371455357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.65158211649717157</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.64679670497897956</v>
-      </c>
-      <c r="D10" s="1">
-        <f>ABS(C10)</f>
-        <v>0.64679670497897956</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.51573338798113233</v>
+        <v>0.65158211649717157</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.84518091573972476</v>
+        <v>0.64679670497897956</v>
       </c>
       <c r="D11" s="1">
         <f>ABS(C11)</f>
-        <v>0.84518091573972476</v>
+        <v>0.64679670497897956</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>1.4933100421875269</v>
+        <v>-0.51573338798113233</v>
       </c>
       <c r="C12" s="1">
-        <v>0.9286535247531138</v>
+        <v>-0.84518091573972476</v>
       </c>
       <c r="D12" s="1">
         <f>ABS(C12)</f>
-        <v>0.9286535247531138</v>
+        <v>0.84518091573972476</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1483274784203321</v>
+        <v>1.4933100421875269</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0464131250409425</v>
+        <v>0.9286535247531138</v>
       </c>
       <c r="D13" s="1">
         <f>ABS(C13)</f>
-        <v>1.0464131250409425</v>
+        <v>0.9286535247531138</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2193083614088744</v>
+        <v>1.1483274784203321</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0770271326016119</v>
+        <v>1.0464131250409425</v>
       </c>
       <c r="D14" s="1">
         <f>ABS(C14)</f>
-        <v>1.0770271326016119</v>
+        <v>1.0464131250409425</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0772665936620787</v>
+        <v>1.2193083614088744</v>
       </c>
       <c r="C15" s="1">
-        <v>1.1301254448902107</v>
+        <v>1.0770271326016119</v>
       </c>
       <c r="D15" s="1">
         <f>ABS(C15)</f>
-        <v>1.1301254448902107</v>
+        <v>1.0770271326016119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>1.2594455719057893</v>
+        <v>1.0772665936620787</v>
       </c>
       <c r="C16" s="1">
-        <v>1.2259996652317995</v>
+        <v>1.1301254448902107</v>
       </c>
       <c r="D16" s="1">
         <f>ABS(C16)</f>
-        <v>1.2259996652317995</v>
+        <v>1.1301254448902107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1.3075829585942587</v>
+        <v>1.2594455719057893</v>
       </c>
       <c r="C17" s="1">
-        <v>1.2361636986121165</v>
+        <v>1.2259996652317995</v>
       </c>
       <c r="D17" s="1">
         <f>ABS(C17)</f>
-        <v>1.2361636986121165</v>
+        <v>1.2259996652317995</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>-0.77020402637809826</v>
+        <v>1.3075829585942587</v>
       </c>
       <c r="C18" s="1">
-        <v>-1.4253977758671439</v>
+        <v>1.2361636986121165</v>
       </c>
       <c r="D18" s="1">
         <f>ABS(C18)</f>
-        <v>1.4253977758671439</v>
+        <v>1.2361636986121165</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>2.2466537083975457</v>
+        <v>-0.77020402637809826</v>
       </c>
       <c r="C19" s="1">
-        <v>1.44806305928986</v>
+        <v>-1.4253977758671439</v>
       </c>
       <c r="D19" s="1">
         <f>ABS(C19)</f>
-        <v>1.44806305928986</v>
+        <v>1.4253977758671439</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>-0.89089947364882049</v>
+        <v>2.2466537083975457</v>
       </c>
       <c r="C20" s="1">
-        <v>-1.5394258654147996</v>
+        <v>1.44806305928986</v>
       </c>
       <c r="D20" s="1">
         <f>ABS(C20)</f>
-        <v>1.5394258654147996</v>
+        <v>1.44806305928986</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>1.7029864967627337</v>
+        <v>-0.89089947364882049</v>
       </c>
       <c r="C21" s="1">
-        <v>1.5422694878026388</v>
+        <v>-1.5394258654147996</v>
       </c>
       <c r="D21" s="1">
         <f>ABS(C21)</f>
-        <v>1.5422694878026388</v>
+        <v>1.5394258654147996</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
-        <v>2.1870494024974705</v>
+        <v>1.7029864967627337</v>
       </c>
       <c r="C22" s="1">
-        <v>2.0192184953629497</v>
+        <v>1.5422694878026388</v>
       </c>
       <c r="D22" s="1">
         <f>ABS(C22)</f>
-        <v>2.0192184953629497</v>
+        <v>1.5422694878026388</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>2.282856138367944</v>
+        <v>2.1870494024974705</v>
       </c>
       <c r="C23" s="1">
-        <v>2.0733766949174091</v>
+        <v>2.0192184953629497</v>
       </c>
       <c r="D23" s="1">
         <f>ABS(C23)</f>
-        <v>2.0733766949174091</v>
+        <v>2.0192184953629497</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2263027840096368</v>
+        <v>2.282856138367944</v>
       </c>
       <c r="C24" s="1">
-        <v>2.1499149792182704</v>
+        <v>2.0733766949174091</v>
       </c>
       <c r="D24" s="1">
         <f>ABS(C24)</f>
-        <v>2.1499149792182704</v>
+        <v>2.0733766949174091</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
-        <v>2.4278473588069391</v>
+        <v>2.2263027840096368</v>
       </c>
       <c r="C25" s="1">
-        <v>2.4256807804862128</v>
+        <v>2.1499149792182704</v>
       </c>
       <c r="D25" s="1">
         <f>ABS(C25)</f>
-        <v>2.4256807804862128</v>
+        <v>2.1499149792182704</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>1.5420820006707685</v>
+        <v>2.4278473588069391</v>
       </c>
       <c r="C26" s="1">
-        <v>2.5662185695234174</v>
+        <v>2.4256807804862128</v>
       </c>
       <c r="D26" s="1">
         <f>ABS(C26)</f>
-        <v>2.5662185695234174</v>
+        <v>2.4256807804862128</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
-        <v>3.0061776467890611</v>
+        <v>1.5420820006707685</v>
       </c>
       <c r="C27" s="1">
-        <v>2.9444734306911227</v>
+        <v>2.5662185695234174</v>
       </c>
       <c r="D27" s="1">
         <f>ABS(C27)</f>
-        <v>2.9444734306911227</v>
+        <v>2.5662185695234174</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>13.721720581074653</v>
+        <v>3.0061776467890611</v>
       </c>
       <c r="C28" s="1">
-        <v>3.1214117492836082</v>
+        <v>2.9444734306911227</v>
       </c>
       <c r="D28" s="1">
         <f>ABS(C28)</f>
+        <v>2.9444734306911227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <v>13.721720581074653</v>
+      </c>
+      <c r="C29" s="1">
         <v>3.1214117492836082</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.52688522055231712</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3.1405506741996612</v>
       </c>
       <c r="D29" s="1">
         <f>ABS(C29)</f>
-        <v>3.1405506741996612</v>
+        <v>3.1214117492836082</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2276,7 +2289,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
-    <sortCondition ref="D1:D31"/>
+    <sortCondition ref="D4:D31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
